--- a/data/comunio_tableau_J19.xlsx
+++ b/data/comunio_tableau_J19.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="top_players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="top_players" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,27 +486,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2021-12-21</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2021-12-21(V)</t>
+          <t>2022-01-01(V)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -532,19 +532,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RCD Espanyol de Barcelona</t>
+          <t>RC Celta de Vigo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diego López</t>
+          <t>Matías Dituro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -565,58 +565,58 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="R2" t="n">
-        <v>4220000</v>
+        <v>5910000</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>40190.48</t>
+          <t>54220.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>301428.57</t>
+          <t>268636.36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rayo Vallecano de Madrid</t>
+          <t>RCD Espanyol de Barcelona</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dimitrievski</t>
+          <t>Diego López</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -637,58 +637,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K3" t="n">
         <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
-        <v>3850000</v>
+        <v>4290000</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>38118.81</t>
+          <t>40093.46</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>142592.59</t>
+          <t>1430000.00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>439</v>
+        <v>169</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RC Celta de Vigo</t>
+          <t>Real Madrid CF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Matías Dituro</t>
+          <t>Courtois</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -709,58 +709,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
-        <v>-1</v>
-      </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="R4" t="n">
-        <v>6490000</v>
+        <v>6680000</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>67604.17</t>
+          <t>63619.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>499230.77</t>
+          <t>202424.24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Real Madrid CF</t>
+          <t>Rayo Vallecano de Madrid</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Courtois</t>
+          <t>Dimitrievski</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -781,46 +781,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>6620000</v>
+        <v>3760000</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>72747.25</t>
+          <t>37227.72</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>228275.86</t>
+          <t>250666.67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" t="n">
         <v>14</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,40 +853,40 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="R6" t="n">
-        <v>4160000</v>
+        <v>4000000</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>48372.09</t>
+          <t>43010.75</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>208000.00</t>
+          <t>173913.04</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
         <v>95</v>
@@ -925,46 +925,46 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="R7" t="n">
-        <v>7850000</v>
+        <v>7570000</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>73364.49</t>
+          <t>65826.09</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>206578.95</t>
+          <t>280370.37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -997,58 +997,58 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R8" t="n">
-        <v>5100000</v>
+        <v>5230000</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>50495.05</t>
+          <t>47545.45</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>255000.00</t>
+          <t>290555.56</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>172</v>
+        <v>464</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Real Madrid CF</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alaba</t>
+          <t>Diego Carlos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1057,70 +1057,70 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
         <v>4.6</v>
       </c>
       <c r="R9" t="n">
-        <v>9490000</v>
+        <v>7220000</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>93960.40</t>
+          <t>66851.85</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>412608.70</t>
+          <t>313913.04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>465</v>
+        <v>172</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Real Madrid CF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Diego Carlos</t>
+          <t>Alaba</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1129,70 +1129,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K10" t="n">
         <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>7220000</v>
+        <v>8880000</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>75208.33</t>
+          <t>82990.65</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>361000.00</t>
+          <t>555000.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rayo Vallecano de Madrid</t>
+          <t>Villarreal CF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Catena</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1201,70 +1201,70 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="M11" t="n">
-        <v>6</v>
-      </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="R11" t="n">
-        <v>3300000</v>
+        <v>6720000</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>65882.35</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>137500.00</t>
+          <t>172307.69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>122</v>
+        <v>465</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Getafe CF</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Damián Suárez</t>
+          <t>Marcos Acuña</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1273,142 +1273,142 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>3900000</v>
+        <v>5700000</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>45348.84</t>
+          <t>58163.27</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>195000.00</t>
+          <t>285000.00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano de Madrid</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Catena</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G13" t="n">
+        <v>95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>93</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Real Betis Balompié</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Álex Moreno</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" t="n">
-        <v>78</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>84</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="M13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>23</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="R13" t="n">
-        <v>5790000</v>
+        <v>3450000</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>68928.57</t>
+          <t>37096.77</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>160833.33</t>
+          <t>181578.95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Real Sociedad de Fútbol</t>
+          <t>Getafe CF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aritz Elustondo</t>
+          <t>Damián Suárez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1417,70 +1417,70 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>84</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="R14" t="n">
-        <v>5540000</v>
+        <v>4460000</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>65952.38</t>
+          <t>48478.26</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2770000.00</t>
+          <t>234736.84</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Real Sociedad de Fútbol</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maffeo</t>
+          <t>Aritz Elustondo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1489,70 +1489,70 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>4760000</v>
+        <v>5280000</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>59500.00</t>
+          <t>58021.98</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>476000.00</t>
+          <t>586666.67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Villarreal CF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Marcos Acuña</t>
+          <t>Alberto Moreno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1561,58 +1561,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="R16" t="n">
-        <v>4910000</v>
+        <v>3960000</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>61375.00</t>
+          <t>44494.38</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>350714.29</t>
+          <t>141428.57</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
         <v>95</v>
@@ -1645,58 +1645,58 @@
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="R17" t="n">
-        <v>9710000</v>
+        <v>9770000</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>80247.93</t>
+          <t>74580.15</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>441363.64</t>
+          <t>424782.61</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Real Betis Balompié</t>
+          <t>Real Madrid CF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fekir</t>
+          <t>Casemiro</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1705,58 +1705,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K18" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>10</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="R18" t="n">
-        <v>11770000</v>
+        <v>12700000</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>107000.00</t>
+          <t>103252.03</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>405862.07</t>
+          <t>396875.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="n">
         <v>8</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Casemiro</t>
+          <t>Kroos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1777,70 +1777,70 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" t="n">
         <v>9</v>
       </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>9</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="R19" t="n">
-        <v>12660000</v>
+        <v>15420000</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>117222.22</t>
+          <t>130677.97</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>408387.10</t>
+          <t>358604.65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rayo Vallecano de Madrid</t>
+          <t>Real Betis Balompié</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Álvaro García</t>
+          <t>Fekir</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1852,67 +1852,67 @@
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="R20" t="n">
-        <v>8820000</v>
+        <v>13260000</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>83207.55</t>
+          <t>115304.35</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>383478.26</t>
+          <t>491111.11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Villarreal CF</t>
+          <t>Rayo Vallecano de Madrid</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Parejo</t>
+          <t>Trejo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1921,70 +1921,70 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="R21" t="n">
-        <v>14490000</v>
+        <v>9190000</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>138000.00</t>
+          <t>82053.57</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>536666.67</t>
+          <t>483684.21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Villarreal CF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sergio Busquets</t>
+          <t>Parejo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1993,70 +1993,70 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K22" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="R22" t="n">
-        <v>8970000</v>
+        <v>14600000</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>87941.18</t>
+          <t>130357.14</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>448500.00</t>
+          <t>663636.36</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Real Madrid CF</t>
+          <t>Rayo Vallecano de Madrid</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kroos</t>
+          <t>Álvaro García</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2065,70 +2065,70 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
         <v>7</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>17120000</v>
+        <v>8610000</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>167843.14</t>
+          <t>78272.73</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>438974.36</t>
+          <t>506470.59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rayo Vallecano de Madrid</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Trejo</t>
+          <t>Sergio Busquets</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2137,52 +2137,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K24" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>9730000</v>
+        <v>8570000</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>96336.63</t>
+          <t>79351.85</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>973000.00</t>
+          <t>659230.77</t>
         </is>
       </c>
     </row>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" t="n">
         <v>7</v>
@@ -2221,112 +2221,112 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K25" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="R25" t="n">
-        <v>13040000</v>
+        <v>12900000</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>131717.17</t>
+          <t>125242.72</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>343157.89</t>
+          <t>416129.03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>449</v>
+        <v>277</v>
       </c>
       <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Real Betis Balompié</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Canales</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>19</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>RC Celta de Vigo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Denis Suárez</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>18</v>
-      </c>
       <c r="G26" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="R26" t="n">
-        <v>6860000</v>
+        <v>12990000</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>75384.62</t>
+          <t>126116.50</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>285833.33</t>
+          <t>393636.36</t>
         </is>
       </c>
     </row>
@@ -2353,52 +2353,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
         <v>95</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K27" t="n">
         <v>10.6</v>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R27" t="n">
-        <v>23920000</v>
+        <v>24310000</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>125894.74</t>
+          <t>114669.81</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>531555.56</t>
+          <t>442000.00</t>
         </is>
       </c>
     </row>
@@ -2425,70 +2425,70 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K28" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M28" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="R28" t="n">
-        <v>19720000</v>
+        <v>19810000</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>128888.89</t>
+          <t>116529.41</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>505641.03</t>
+          <t>582647.06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>110</v>
+        <v>387</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Depay</t>
+          <t>Joselu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2497,70 +2497,70 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="K29" t="n">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="R29" t="n">
-        <v>17710000</v>
+        <v>13690000</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>136230.77</t>
+          <t>92500.00</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1475833.33</t>
+          <t>441612.90</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>RC Celta de Vigo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Joselu</t>
+          <t>Iago Aspas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2569,142 +2569,142 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="R30" t="n">
-        <v>13670000</v>
+        <v>16010000</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>105968.99</t>
+          <t>110413.79</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>488214.29</t>
+          <t>457428.57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Guedes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>133</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11</v>
+      </c>
+      <c r="M31" t="n">
         <v>19</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>RC Celta de Vigo</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Iago Aspas</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>DL</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>17</v>
-      </c>
-      <c r="G31" t="n">
-        <v>89</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="n">
         <v>8</v>
       </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>125</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9</v>
-      </c>
-      <c r="M31" t="n">
-        <v>8</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>15</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>6.4</v>
-      </c>
       <c r="R31" t="n">
-        <v>17840000</v>
+        <v>11600000</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>142720.00</t>
+          <t>87218.05</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>557500.00</t>
+          <t>290000.00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Real Betis Balompié</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Juanmi Jiménez</t>
+          <t>Depay</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2716,67 +2716,67 @@
         <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K32" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="R32" t="n">
-        <v>11790000</v>
+        <v>17140000</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>95853.66</t>
+          <t>129848.48</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>235800.00</t>
+          <t>8570000.00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Valencia CF</t>
+          <t>Real Betis Balompié</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Guedes</t>
+          <t>Juanmi Jiménez</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2785,58 +2785,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K33" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>11020000</v>
+        <v>12390000</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>89593.50</t>
+          <t>95307.69</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>314857.14</t>
+          <t>495600.00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="n">
         <v>4</v>
@@ -2857,70 +2857,70 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K34" t="n">
         <v>6.6</v>
       </c>
       <c r="L34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>5</v>
       </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="R34" t="n">
-        <v>18920000</v>
+        <v>15470000</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>167433.63</t>
+          <t>122777.78</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>788333.33</t>
+          <t>572962.96</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>462</v>
+        <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RC Celta de Vigo</t>
+          <t>Club Atlético de Madrid</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Santi Mina</t>
+          <t>Correa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2929,52 +2929,52 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R35" t="n">
-        <v>9530000</v>
+        <v>10130000</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>93431.37</t>
+          <t>87327.59</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>381200.00</t>
+          <t>337666.67</t>
         </is>
       </c>
     </row>
@@ -3001,52 +3001,52 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="n">
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K36" t="n">
         <v>5.3</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="R36" t="n">
-        <v>10310000</v>
+        <v>10710000</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>103100.00</t>
+          <t>96486.49</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>355517.24</t>
+          <t>315000.00</t>
         </is>
       </c>
     </row>
